--- a/ERD.xlsx
+++ b/ERD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\005_Java\Solange-Adam-po\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE23764-9F55-4272-8CC1-50813AD75B8A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45346EC8-AF84-4569-8FA9-EA4F463A6B34}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E7DF9F5F-C431-4D74-9DD0-8619E825D515}"/>
+    <workbookView xWindow="0" yWindow="108" windowWidth="15288" windowHeight="12168" xr2:uid="{E7DF9F5F-C431-4D74-9DD0-8619E825D515}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
   <si>
     <t>User</t>
   </si>
@@ -51,9 +51,6 @@
     <t>accessLevel</t>
   </si>
   <si>
-    <t>offersMade</t>
-  </si>
-  <si>
     <t>CustomerOffers</t>
   </si>
   <si>
@@ -111,12 +108,6 @@
     <t>invoiceNumber*</t>
   </si>
   <si>
-    <t>Sales Ledger</t>
-  </si>
-  <si>
-    <t>offerID (PK)</t>
-  </si>
-  <si>
     <t>˩</t>
   </si>
   <si>
@@ -129,7 +120,16 @@
     <t>==Ɛ</t>
   </si>
   <si>
-    <t>Composite Key???</t>
+    <t>offerID (FK)</t>
+  </si>
+  <si>
+    <t>payment amount</t>
+  </si>
+  <si>
+    <t>CustomerAccount</t>
+  </si>
+  <si>
+    <t>balance</t>
   </si>
 </sst>
 </file>
@@ -251,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -307,6 +307,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -621,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7583CD4D-BDD1-4781-9703-3CAB3C8DAE6C}">
-  <dimension ref="C2:K18"/>
+  <dimension ref="A2:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -638,209 +642,251 @@
     <col min="12" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="G2" s="22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="G2" s="22"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="G3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="K3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C5" s="12" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="E6" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="E7" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="K7" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="E8" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="K8" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="C9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="9"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9" s="24"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="E9" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="K9" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C10" s="12"/>
-      <c r="D10" s="9"/>
+      <c r="D10" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="E10" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="K10" s="12"/>
     </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C11" s="19"/>
-      <c r="D11" s="9"/>
+      <c r="D11" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="E11" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="K11" s="19"/>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D12" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="E12" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="E13" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="E14" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="E15" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="E16" s="14" t="s">
-        <v>24</v>
-      </c>
       <c r="F16" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.4">
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.4">
-      <c r="G18" s="19"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="G18" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="G19" s="19" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
